--- a/documents/Deliverable_4/FlyingMongeese_Deliverable_4_SprintBacklog.xlsx
+++ b/documents/Deliverable_4/FlyingMongeese_Deliverable_4_SprintBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\Deliverable_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF31828-4947-4769-B425-94F0B689A0CE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B031B9E4-B4C3-454D-B165-79314CAD0C15}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="450" windowWidth="22740" windowHeight="15570" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1872" yWindow="456" windowWidth="22740" windowHeight="15576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SprintBacklog1" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="SprintBacklog3" sheetId="4" r:id="rId3"/>
     <sheet name="SprintBacklog4" sheetId="5" r:id="rId4"/>
     <sheet name="SprintBacklog5" sheetId="6" r:id="rId5"/>
+    <sheet name="SprintBacklog6" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="129">
   <si>
     <t>Story Type</t>
   </si>
@@ -668,6 +669,34 @@
 Turner:X
 Mayur:X
 Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Week 1(04/30/2018)</t>
+  </si>
+  <si>
+    <t>Week 2(05/07/2018)</t>
+  </si>
+  <si>
+    <t>Cade:X
+Andre:
+Turner:
+Mayur:X
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Start planning on how calculate specific sales margins based on sales prediction.</t>
+  </si>
+  <si>
+    <t>Expand upload sales data for one day method so the user can upload past days or year sales data.</t>
+  </si>
+  <si>
+    <t>Cade: X
+Andre:
+Turner:
+Mayur:
+Riggs: X
 Carolyn:</t>
   </si>
 </sst>
@@ -892,14 +921,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -915,7 +944,15 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1272,24 +1309,24 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1315,7 +1352,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>10</v>
       </c>
@@ -1338,7 +1375,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>11</v>
       </c>
@@ -1361,7 +1398,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>12</v>
       </c>
@@ -1384,7 +1421,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>13</v>
       </c>
@@ -1407,7 +1444,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>14</v>
       </c>
@@ -1430,7 +1467,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>15</v>
       </c>
@@ -1455,7 +1492,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>16</v>
       </c>
@@ -1480,7 +1517,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>17</v>
       </c>
@@ -1505,7 +1542,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>18</v>
       </c>
@@ -1528,7 +1565,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>19</v>
       </c>
@@ -1551,7 +1588,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>20</v>
       </c>
@@ -1576,12 +1613,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="9" t="s">
         <v>31</v>
@@ -1592,7 +1629,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="9" t="s">
         <v>32</v>
@@ -1609,7 +1646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="9" t="s">
         <v>33</v>
@@ -1626,7 +1663,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="9" t="s">
         <v>34</v>
@@ -1643,7 +1680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="9" t="s">
         <v>38</v>
@@ -1660,7 +1697,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="9" t="s">
         <v>39</v>
@@ -1677,7 +1714,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="9" t="s">
         <v>40</v>
@@ -1694,7 +1731,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
@@ -1708,10 +1745,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
     </row>
   </sheetData>
@@ -1720,7 +1757,7 @@
     <mergeCell ref="A14:XFD14"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1736,19 +1773,19 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="7" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:11" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>12</v>
       </c>
@@ -1774,7 +1811,7 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>10</v>
       </c>
@@ -1799,7 +1836,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>11</v>
       </c>
@@ -1824,7 +1861,7 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>12</v>
       </c>
@@ -1847,7 +1884,7 @@
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>13</v>
       </c>
@@ -1870,7 +1907,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>14</v>
       </c>
@@ -1893,7 +1930,7 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>15</v>
       </c>
@@ -1918,7 +1955,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>16</v>
       </c>
@@ -1943,7 +1980,7 @@
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>17</v>
       </c>
@@ -1968,7 +2005,7 @@
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>18</v>
       </c>
@@ -1991,7 +2028,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>20</v>
       </c>
@@ -2016,12 +2053,12 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+    <row r="13" spans="1:11" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="38" t="s">
         <v>31</v>
@@ -2036,13 +2073,13 @@
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26" t="s">
         <v>75</v>
@@ -2051,13 +2088,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="23"/>
       <c r="F16" s="26" t="s">
         <v>4</v>
@@ -2066,13 +2103,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
@@ -2083,13 +2120,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="23"/>
       <c r="F18" s="26" t="s">
         <v>4</v>
@@ -2098,13 +2135,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
@@ -2115,13 +2152,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="23"/>
       <c r="F20" s="26" t="s">
         <v>4</v>
@@ -2130,13 +2167,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="23"/>
       <c r="F21" s="26" t="s">
         <v>4</v>
@@ -2145,13 +2182,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="23"/>
       <c r="F22" s="26" t="s">
         <v>4</v>
@@ -2160,13 +2197,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="23" t="s">
         <v>48</v>
       </c>
@@ -2179,21 +2216,21 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A13:XFD13"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2210,22 +2247,22 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2248,7 +2285,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -2267,7 +2304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -2286,7 +2323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -2305,7 +2342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2324,7 +2361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2343,7 +2380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2362,7 +2399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2381,7 +2418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2400,7 +2437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2419,7 +2456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2438,7 +2475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -2457,23 +2494,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="38" t="s">
         <v>32</v>
@@ -2490,7 +2527,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>33</v>
@@ -2507,7 +2544,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>61</v>
@@ -2524,7 +2561,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>38</v>
@@ -2541,7 +2578,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>39</v>
@@ -2558,7 +2595,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>35</v>
@@ -2575,7 +2612,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>37</v>
@@ -2592,7 +2629,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>36</v>
@@ -2609,7 +2646,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>40</v>
@@ -2626,16 +2663,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
@@ -2643,14 +2685,9 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2663,26 +2700,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="3" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2705,7 +2742,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -2726,7 +2763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -2747,7 +2784,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -2768,7 +2805,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2787,7 +2824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2806,7 +2843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2827,7 +2864,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2848,7 +2885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2869,7 +2906,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2890,7 +2927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2909,7 +2946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -2928,7 +2965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>21</v>
       </c>
@@ -2947,26 +2984,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>32</v>
@@ -2983,7 +3020,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>33</v>
@@ -3000,7 +3037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>61</v>
@@ -3017,7 +3054,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>38</v>
@@ -3034,7 +3071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>39</v>
@@ -3051,7 +3088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>35</v>
@@ -3068,7 +3105,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>37</v>
@@ -3085,7 +3122,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>36</v>
@@ -3102,7 +3139,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>40</v>
@@ -3119,7 +3156,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
         <v>114</v>
       </c>
@@ -3135,7 +3172,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E28"/>
     </row>
   </sheetData>
@@ -3155,7 +3192,7 @@
     <mergeCell ref="B25:D25"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3168,26 +3205,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -3210,7 +3247,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -3231,7 +3268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -3252,7 +3289,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -3273,7 +3310,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -3292,7 +3329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -3311,7 +3348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -3332,7 +3369,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -3353,7 +3390,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -3374,7 +3411,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -3395,7 +3432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -3414,7 +3451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -3433,7 +3470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
       <c r="B14" s="30" t="s">
         <v>84</v>
@@ -3448,23 +3485,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>32</v>
@@ -3481,7 +3518,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>33</v>
@@ -3498,7 +3535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>61</v>
@@ -3515,7 +3552,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>38</v>
@@ -3532,7 +3569,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>39</v>
@@ -3549,7 +3586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>35</v>
@@ -3566,7 +3603,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>71</v>
@@ -3583,7 +3620,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>36</v>
@@ -3600,7 +3637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>40</v>
@@ -3617,7 +3654,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>87</v>
@@ -3634,7 +3671,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
         <v>114</v>
       </c>
@@ -3650,7 +3687,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B28" s="38" t="s">
         <v>119</v>
       </c>
@@ -3685,6 +3722,525 @@
     <mergeCell ref="B24:D24"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7A854D-36D4-4862-A322-F95941A93F31}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>11</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>13</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>14</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>15</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>16</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>17</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>18</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>19</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>20</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="B27" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="B28" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A15:XFD15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/documents/Deliverable_4/FlyingMongeese_Deliverable_4_SprintBacklog.xlsx
+++ b/documents/Deliverable_4/FlyingMongeese_Deliverable_4_SprintBacklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\Deliverable_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsga\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B031B9E4-B4C3-454D-B165-79314CAD0C15}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D08C982-9604-4187-97CF-A9E5AF8A58F0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="456" windowWidth="22740" windowHeight="15576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10050" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SprintBacklog1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="131">
   <si>
     <t>Story Type</t>
   </si>
@@ -697,6 +697,22 @@
 Turner:
 Mayur:
 Riggs: X
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:X
+Mayur:
+Riggs:X
+Carolyn: X</t>
+  </si>
+  <si>
+    <t>Cade:X
+Andre:X
+Turner:
+Mayur:
+Riggs:X
 Carolyn:</t>
   </si>
 </sst>
@@ -921,14 +937,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1309,16 +1325,16 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -1352,7 +1368,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>10</v>
       </c>
@@ -1375,7 +1391,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>11</v>
       </c>
@@ -1398,7 +1414,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>12</v>
       </c>
@@ -1421,7 +1437,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>13</v>
       </c>
@@ -1444,7 +1460,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>14</v>
       </c>
@@ -1467,7 +1483,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>15</v>
       </c>
@@ -1492,7 +1508,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>16</v>
       </c>
@@ -1517,7 +1533,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>17</v>
       </c>
@@ -1542,7 +1558,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>18</v>
       </c>
@@ -1565,7 +1581,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>19</v>
       </c>
@@ -1588,7 +1604,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>20</v>
       </c>
@@ -1629,7 +1645,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="9" t="s">
         <v>32</v>
@@ -1646,7 +1662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="9" t="s">
         <v>33</v>
@@ -1663,7 +1679,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="9" t="s">
         <v>34</v>
@@ -1680,7 +1696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="9" t="s">
         <v>38</v>
@@ -1697,7 +1713,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="9" t="s">
         <v>39</v>
@@ -1714,7 +1730,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="9" t="s">
         <v>40</v>
@@ -1731,7 +1747,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
@@ -1773,19 +1789,19 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="7" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="7" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:11" s="36" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>12</v>
       </c>
@@ -1811,7 +1827,7 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A3" s="23">
         <v>10</v>
       </c>
@@ -1836,7 +1852,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A4" s="23">
         <v>11</v>
       </c>
@@ -1861,7 +1877,7 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A5" s="23">
         <v>12</v>
       </c>
@@ -1884,7 +1900,7 @@
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A6" s="23">
         <v>13</v>
       </c>
@@ -1907,7 +1923,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="12" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A7" s="23">
         <v>14</v>
       </c>
@@ -1930,7 +1946,7 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="12" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A8" s="23">
         <v>15</v>
       </c>
@@ -1955,7 +1971,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A9" s="23">
         <v>16</v>
       </c>
@@ -1980,7 +1996,7 @@
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A10" s="23">
         <v>17</v>
       </c>
@@ -2005,7 +2021,7 @@
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A11" s="23">
         <v>18</v>
       </c>
@@ -2028,7 +2044,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A12" s="23">
         <v>20</v>
       </c>
@@ -2053,12 +2069,12 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:11" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="19"/>
       <c r="B14" s="38" t="s">
         <v>31</v>
@@ -2073,13 +2089,13 @@
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A15" s="19"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26" t="s">
         <v>75</v>
@@ -2088,13 +2104,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A16" s="19"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="23"/>
       <c r="F16" s="26" t="s">
         <v>4</v>
@@ -2103,13 +2119,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A17" s="19"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
@@ -2120,13 +2136,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="23"/>
       <c r="F18" s="26" t="s">
         <v>4</v>
@@ -2135,13 +2151,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
@@ -2152,13 +2168,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="23"/>
       <c r="F20" s="26" t="s">
         <v>4</v>
@@ -2167,13 +2183,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A21" s="19"/>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="23"/>
       <c r="F21" s="26" t="s">
         <v>4</v>
@@ -2182,13 +2198,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A22" s="19"/>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="23"/>
       <c r="F22" s="26" t="s">
         <v>4</v>
@@ -2197,13 +2213,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="23" t="s">
         <v>48</v>
       </c>
@@ -2216,18 +2232,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B14:G14"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B14:G14"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="4" priority="1">
@@ -2247,22 +2263,22 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2285,7 +2301,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -2304,7 +2320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -2323,7 +2339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -2342,7 +2358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2361,7 +2377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2380,7 +2396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2399,7 +2415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2418,7 +2434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2437,7 +2453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2456,7 +2472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2475,7 +2491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -2494,23 +2510,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:7" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="38" t="s">
         <v>32</v>
@@ -2527,7 +2543,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>33</v>
@@ -2544,7 +2560,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>61</v>
@@ -2561,7 +2577,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>38</v>
@@ -2578,7 +2594,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>39</v>
@@ -2595,7 +2611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>35</v>
@@ -2612,7 +2628,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>37</v>
@@ -2629,7 +2645,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>36</v>
@@ -2646,7 +2662,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>40</v>
@@ -2673,11 +2689,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
@@ -2685,6 +2696,11 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="3" priority="1">
@@ -2704,22 +2720,22 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.08984375" style="3" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2742,7 +2758,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -2763,7 +2779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -2784,7 +2800,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -2805,7 +2821,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2824,7 +2840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2843,7 +2859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2864,7 +2880,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2885,7 +2901,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2906,7 +2922,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2927,7 +2943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2946,7 +2962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -2965,7 +2981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>21</v>
       </c>
@@ -2987,23 +3003,23 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:7" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>32</v>
@@ -3020,7 +3036,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>33</v>
@@ -3037,7 +3053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>61</v>
@@ -3054,7 +3070,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>38</v>
@@ -3071,7 +3087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>39</v>
@@ -3088,7 +3104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>35</v>
@@ -3105,7 +3121,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>37</v>
@@ -3122,7 +3138,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>36</v>
@@ -3139,7 +3155,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>40</v>
@@ -3156,7 +3172,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="93" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
         <v>114</v>
       </c>
@@ -3209,22 +3225,22 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.36328125" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -3247,7 +3263,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -3268,7 +3284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -3289,7 +3305,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -3310,7 +3326,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -3329,7 +3345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -3348,7 +3364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -3369,7 +3385,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -3390,7 +3406,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -3411,7 +3427,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -3432,7 +3448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -3451,7 +3467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -3470,7 +3486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A14" s="29"/>
       <c r="B14" s="30" t="s">
         <v>84</v>
@@ -3485,23 +3501,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:7" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>32</v>
@@ -3518,7 +3534,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>33</v>
@@ -3535,7 +3551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>61</v>
@@ -3552,7 +3568,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>38</v>
@@ -3569,7 +3585,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>39</v>
@@ -3586,7 +3602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>35</v>
@@ -3603,7 +3619,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>71</v>
@@ -3620,7 +3636,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>36</v>
@@ -3637,7 +3653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>40</v>
@@ -3654,7 +3670,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="93" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>87</v>
@@ -3671,7 +3687,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="93" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
         <v>114</v>
       </c>
@@ -3687,7 +3703,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="93" x14ac:dyDescent="0.25">
       <c r="B28" s="38" t="s">
         <v>119</v>
       </c>
@@ -3734,26 +3750,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7A854D-36D4-4862-A322-F95941A93F31}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="37.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.90625" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -3776,7 +3792,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -3795,7 +3811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -3814,7 +3830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -3833,7 +3849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -3852,7 +3868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -3873,7 +3889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -3892,7 +3908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -3911,7 +3927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -3930,7 +3946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -3949,7 +3965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -3970,7 +3986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -3989,7 +4005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="18" t="s">
         <v>84</v>
@@ -4004,23 +4020,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:7" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>32</v>
@@ -4037,7 +4053,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>33</v>
@@ -4054,7 +4070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>61</v>
@@ -4071,7 +4087,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>38</v>
@@ -4088,7 +4104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>39</v>
@@ -4099,13 +4115,13 @@
         <v>56</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>35</v>
@@ -4122,7 +4138,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>71</v>
@@ -4139,7 +4155,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>36</v>
@@ -4150,13 +4166,13 @@
         <v>49</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>40</v>
@@ -4173,7 +4189,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="93" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>87</v>
@@ -4184,13 +4200,13 @@
         <v>49</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="93" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
         <v>114</v>
       </c>
@@ -4203,10 +4219,10 @@
         <v>102</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="93" x14ac:dyDescent="0.25">
       <c r="B28" s="38" t="s">
         <v>119</v>
       </c>
@@ -4224,6 +4240,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A15:XFD15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
@@ -4233,12 +4255,6 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A15:XFD15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">

--- a/documents/Deliverable_4/FlyingMongeese_Deliverable_4_SprintBacklog.xlsx
+++ b/documents/Deliverable_4/FlyingMongeese_Deliverable_4_SprintBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsga\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolyn\Documents\GitHub\Software2project\documents\Deliverable_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D08C982-9604-4187-97CF-A9E5AF8A58F0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9787678E-7D68-42AF-8009-59D96FFC31F0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10050" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10056" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SprintBacklog1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="132">
   <si>
     <t>Story Type</t>
   </si>
@@ -714,6 +714,14 @@
 Mayur:
 Riggs:X
 Carolyn:</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:
+Mayur:
+Riggs:X
+Carolyn:X</t>
   </si>
 </sst>
 </file>
@@ -937,14 +945,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1325,16 +1333,16 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.6328125" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -1368,7 +1376,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>10</v>
       </c>
@@ -1391,7 +1399,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>11</v>
       </c>
@@ -1414,7 +1422,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>12</v>
       </c>
@@ -1437,7 +1445,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>13</v>
       </c>
@@ -1460,7 +1468,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>14</v>
       </c>
@@ -1483,7 +1491,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>15</v>
       </c>
@@ -1508,7 +1516,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>16</v>
       </c>
@@ -1533,7 +1541,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>17</v>
       </c>
@@ -1558,7 +1566,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>18</v>
       </c>
@@ -1581,7 +1589,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>19</v>
       </c>
@@ -1604,7 +1612,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>20</v>
       </c>
@@ -1645,7 +1653,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="9" t="s">
         <v>32</v>
@@ -1662,7 +1670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="9" t="s">
         <v>33</v>
@@ -1679,7 +1687,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="9" t="s">
         <v>34</v>
@@ -1696,7 +1704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="9" t="s">
         <v>38</v>
@@ -1713,7 +1721,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="9" t="s">
         <v>39</v>
@@ -1730,7 +1738,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="9" t="s">
         <v>40</v>
@@ -1747,7 +1755,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
@@ -1789,19 +1797,19 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.6328125" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="7" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="36" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:11" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>12</v>
       </c>
@@ -1827,7 +1835,7 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>10</v>
       </c>
@@ -1852,7 +1860,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>11</v>
       </c>
@@ -1877,7 +1885,7 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>12</v>
       </c>
@@ -1900,7 +1908,7 @@
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>13</v>
       </c>
@@ -1923,7 +1931,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>14</v>
       </c>
@@ -1946,7 +1954,7 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>15</v>
       </c>
@@ -1971,7 +1979,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>16</v>
       </c>
@@ -1996,7 +2004,7 @@
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>17</v>
       </c>
@@ -2021,7 +2029,7 @@
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>18</v>
       </c>
@@ -2044,7 +2052,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>20</v>
       </c>
@@ -2069,12 +2077,12 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+    <row r="13" spans="1:11" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="38" t="s">
         <v>31</v>
@@ -2089,13 +2097,13 @@
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26" t="s">
         <v>75</v>
@@ -2104,13 +2112,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="23"/>
       <c r="F16" s="26" t="s">
         <v>4</v>
@@ -2119,13 +2127,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
@@ -2136,13 +2144,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="23"/>
       <c r="F18" s="26" t="s">
         <v>4</v>
@@ -2151,13 +2159,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
@@ -2168,13 +2176,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="23"/>
       <c r="F20" s="26" t="s">
         <v>4</v>
@@ -2183,13 +2191,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="23"/>
       <c r="F21" s="26" t="s">
         <v>4</v>
@@ -2198,13 +2206,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="23"/>
       <c r="F22" s="26" t="s">
         <v>4</v>
@@ -2213,13 +2221,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="23" t="s">
         <v>48</v>
       </c>
@@ -2232,18 +2240,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A13:XFD13"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="4" priority="1">
@@ -2263,22 +2271,22 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2301,7 +2309,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -2320,7 +2328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -2339,7 +2347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -2358,7 +2366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2377,7 +2385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2396,7 +2404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2415,7 +2423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2434,7 +2442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2453,7 +2461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2472,7 +2480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2491,7 +2499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -2510,23 +2518,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="38" t="s">
         <v>32</v>
@@ -2543,7 +2551,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>33</v>
@@ -2560,7 +2568,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>61</v>
@@ -2577,7 +2585,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>38</v>
@@ -2594,7 +2602,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>39</v>
@@ -2611,7 +2619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>35</v>
@@ -2628,7 +2636,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>37</v>
@@ -2645,7 +2653,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>36</v>
@@ -2662,7 +2670,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>40</v>
@@ -2689,6 +2697,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
@@ -2696,11 +2709,6 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="3" priority="1">
@@ -2720,22 +2728,22 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.08984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="3" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2758,7 +2766,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -2779,7 +2787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -2800,7 +2808,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -2821,7 +2829,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2840,7 +2848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2859,7 +2867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2880,7 +2888,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2901,7 +2909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2922,7 +2930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2943,7 +2951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2962,7 +2970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -2981,7 +2989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>21</v>
       </c>
@@ -3003,23 +3011,23 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:7" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>32</v>
@@ -3036,7 +3044,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>33</v>
@@ -3053,7 +3061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>61</v>
@@ -3070,7 +3078,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>38</v>
@@ -3087,7 +3095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>39</v>
@@ -3104,7 +3112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>35</v>
@@ -3121,7 +3129,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>37</v>
@@ -3138,7 +3146,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>36</v>
@@ -3155,7 +3163,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>40</v>
@@ -3172,7 +3180,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
         <v>114</v>
       </c>
@@ -3221,26 +3229,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -3263,7 +3271,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -3284,7 +3292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -3305,7 +3313,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -3326,7 +3334,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -3345,7 +3353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -3364,7 +3372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -3385,7 +3393,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -3406,7 +3414,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -3427,7 +3435,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -3448,7 +3456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -3467,7 +3475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -3486,7 +3494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
       <c r="B14" s="30" t="s">
         <v>84</v>
@@ -3501,23 +3509,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>32</v>
@@ -3534,7 +3542,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>33</v>
@@ -3551,7 +3559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>61</v>
@@ -3568,7 +3576,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>38</v>
@@ -3585,7 +3593,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>39</v>
@@ -3602,7 +3610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>35</v>
@@ -3619,7 +3627,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>71</v>
@@ -3636,7 +3644,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>36</v>
@@ -3653,7 +3661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>40</v>
@@ -3670,7 +3678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>87</v>
@@ -3687,7 +3695,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
         <v>114</v>
       </c>
@@ -3703,7 +3711,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B28" s="38" t="s">
         <v>119</v>
       </c>
@@ -3750,26 +3758,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7A854D-36D4-4862-A322-F95941A93F31}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.36328125" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" customWidth="1"/>
-    <col min="5" max="5" width="29.453125" customWidth="1"/>
-    <col min="6" max="6" width="19.90625" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -3792,7 +3800,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -3811,7 +3819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -3830,7 +3838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -3849,7 +3857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -3868,7 +3876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -3889,7 +3897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -3908,7 +3916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -3927,7 +3935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -3946,7 +3954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -3965,7 +3973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -3986,7 +3994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -4005,7 +4013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="18" t="s">
         <v>84</v>
@@ -4020,23 +4028,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>32</v>
@@ -4053,7 +4061,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>33</v>
@@ -4070,7 +4078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>61</v>
@@ -4087,7 +4095,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>38</v>
@@ -4104,7 +4112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>39</v>
@@ -4115,13 +4123,13 @@
         <v>56</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>35</v>
@@ -4138,7 +4146,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>71</v>
@@ -4155,7 +4163,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>36</v>
@@ -4172,7 +4180,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>40</v>
@@ -4189,7 +4197,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>87</v>
@@ -4206,7 +4214,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
         <v>114</v>
       </c>
@@ -4222,7 +4230,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B28" s="38" t="s">
         <v>119</v>
       </c>
@@ -4240,12 +4248,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A15:XFD15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
@@ -4255,6 +4257,12 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A15:XFD15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">

--- a/documents/Deliverable_4/FlyingMongeese_Deliverable_4_SprintBacklog.xlsx
+++ b/documents/Deliverable_4/FlyingMongeese_Deliverable_4_SprintBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolyn\Documents\GitHub\Software2project\documents\Deliverable_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\Deliverable_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9787678E-7D68-42AF-8009-59D96FFC31F0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36E9C9A-78FE-4656-A89D-91E5A182E6F5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10056" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10050" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SprintBacklog1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="137">
   <si>
     <t>Story Type</t>
   </si>
@@ -700,14 +700,6 @@
 Carolyn:</t>
   </si>
   <si>
-    <t>Cade:
-Andre:
-Turner:X
-Mayur:
-Riggs:X
-Carolyn: X</t>
-  </si>
-  <si>
     <t>Cade:X
 Andre:X
 Turner:
@@ -716,12 +708,40 @@
 Carolyn:</t>
   </si>
   <si>
-    <t>Cade:
+    <t>Whats Left</t>
+  </si>
+  <si>
+    <t>Privacy Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cade:X
 Andre:
 Turner:
 Mayur:
+Riggs:
+Carolyn: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cade:X
+Andre:
+Turner:X
+Mayur:
+Riggs:
+Carolyn: </t>
+  </si>
+  <si>
+    <t>Cade:X
+Andre:
+Turner:X
+Mayur:X
 Riggs:X
 Carolyn:X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create and Finalize Document </t>
+  </si>
+  <si>
+    <t>Finalize Document</t>
   </si>
 </sst>
 </file>
@@ -945,14 +965,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1333,24 +1353,24 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1376,7 +1396,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>10</v>
       </c>
@@ -1399,7 +1419,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>11</v>
       </c>
@@ -1422,7 +1442,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>12</v>
       </c>
@@ -1445,7 +1465,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>13</v>
       </c>
@@ -1468,7 +1488,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>14</v>
       </c>
@@ -1491,7 +1511,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>15</v>
       </c>
@@ -1516,7 +1536,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>16</v>
       </c>
@@ -1541,7 +1561,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>17</v>
       </c>
@@ -1566,7 +1586,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>18</v>
       </c>
@@ -1589,7 +1609,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>19</v>
       </c>
@@ -1612,7 +1632,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>20</v>
       </c>
@@ -1637,12 +1657,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="9" t="s">
         <v>31</v>
@@ -1653,7 +1673,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="9" t="s">
         <v>32</v>
@@ -1670,7 +1690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="9" t="s">
         <v>33</v>
@@ -1687,7 +1707,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="9" t="s">
         <v>34</v>
@@ -1704,7 +1724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="9" t="s">
         <v>38</v>
@@ -1721,7 +1741,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="9" t="s">
         <v>39</v>
@@ -1738,7 +1758,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="9" t="s">
         <v>40</v>
@@ -1755,7 +1775,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
@@ -1769,10 +1789,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
     </row>
   </sheetData>
@@ -1797,19 +1817,19 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="7" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:11" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>12</v>
       </c>
@@ -1835,7 +1855,7 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>10</v>
       </c>
@@ -1860,7 +1880,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>11</v>
       </c>
@@ -1885,7 +1905,7 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>12</v>
       </c>
@@ -1908,7 +1928,7 @@
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>13</v>
       </c>
@@ -1931,7 +1951,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>14</v>
       </c>
@@ -1954,7 +1974,7 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="12" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>15</v>
       </c>
@@ -1979,7 +1999,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>16</v>
       </c>
@@ -2004,7 +2024,7 @@
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>17</v>
       </c>
@@ -2029,7 +2049,7 @@
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>18</v>
       </c>
@@ -2052,7 +2072,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>20</v>
       </c>
@@ -2077,12 +2097,12 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:11" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="38" t="s">
         <v>31</v>
@@ -2097,13 +2117,13 @@
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26" t="s">
         <v>75</v>
@@ -2112,13 +2132,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="23"/>
       <c r="F16" s="26" t="s">
         <v>4</v>
@@ -2127,13 +2147,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
@@ -2144,13 +2164,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="23"/>
       <c r="F18" s="26" t="s">
         <v>4</v>
@@ -2159,13 +2179,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
@@ -2176,13 +2196,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="23"/>
       <c r="F20" s="26" t="s">
         <v>4</v>
@@ -2191,13 +2211,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="23"/>
       <c r="F21" s="26" t="s">
         <v>4</v>
@@ -2206,13 +2226,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="23"/>
       <c r="F22" s="26" t="s">
         <v>4</v>
@@ -2221,13 +2241,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="23" t="s">
         <v>48</v>
       </c>
@@ -2240,18 +2260,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B14:G14"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B14:G14"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="4" priority="1">
@@ -2271,22 +2291,22 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2309,7 +2329,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -2328,7 +2348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -2347,7 +2367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -2366,7 +2386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2385,7 +2405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2404,7 +2424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2423,7 +2443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2442,7 +2462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2461,7 +2481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2480,7 +2500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2499,7 +2519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -2518,23 +2538,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="38" t="s">
         <v>32</v>
@@ -2551,7 +2571,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>33</v>
@@ -2568,7 +2588,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>61</v>
@@ -2585,7 +2605,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>38</v>
@@ -2602,7 +2622,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>39</v>
@@ -2619,7 +2639,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>35</v>
@@ -2636,7 +2656,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>37</v>
@@ -2653,7 +2673,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>36</v>
@@ -2670,7 +2690,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>40</v>
@@ -2687,21 +2707,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
@@ -2709,6 +2724,11 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="3" priority="1">
@@ -2728,22 +2748,22 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="3" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2766,7 +2786,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -2787,7 +2807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -2808,7 +2828,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -2829,7 +2849,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2848,7 +2868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2867,7 +2887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2888,7 +2908,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2909,7 +2929,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2930,7 +2950,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2951,7 +2971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2970,7 +2990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -2989,7 +3009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>21</v>
       </c>
@@ -3008,26 +3028,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>32</v>
@@ -3044,7 +3064,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>33</v>
@@ -3061,7 +3081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>61</v>
@@ -3078,7 +3098,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>38</v>
@@ -3095,7 +3115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>39</v>
@@ -3112,7 +3132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>35</v>
@@ -3129,7 +3149,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>37</v>
@@ -3146,7 +3166,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>36</v>
@@ -3163,7 +3183,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>40</v>
@@ -3180,7 +3200,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
       <c r="B27" s="38" t="s">
         <v>114</v>
       </c>
@@ -3196,7 +3216,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E28"/>
     </row>
   </sheetData>
@@ -3233,22 +3253,22 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -3271,7 +3291,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -3292,7 +3312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -3313,7 +3333,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -3334,7 +3354,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -3353,7 +3373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -3372,7 +3392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -3393,7 +3413,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -3414,7 +3434,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -3435,7 +3455,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -3456,7 +3476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -3475,7 +3495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -3494,7 +3514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="30" t="s">
         <v>84</v>
@@ -3509,23 +3529,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>32</v>
@@ -3542,7 +3562,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>33</v>
@@ -3559,7 +3579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>61</v>
@@ -3576,7 +3596,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>38</v>
@@ -3593,7 +3613,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>39</v>
@@ -3610,7 +3630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>35</v>
@@ -3627,7 +3647,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>71</v>
@@ -3644,7 +3664,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>36</v>
@@ -3661,7 +3681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>40</v>
@@ -3678,7 +3698,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>87</v>
@@ -3695,7 +3715,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
       <c r="B27" s="38" t="s">
         <v>114</v>
       </c>
@@ -3711,7 +3731,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
       <c r="B28" s="38" t="s">
         <v>119</v>
       </c>
@@ -3756,28 +3776,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7A854D-36D4-4862-A322-F95941A93F31}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="37.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -3800,7 +3820,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -3819,7 +3839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -3838,7 +3858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -3857,7 +3877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -3876,7 +3896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -3897,7 +3917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -3916,7 +3936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -3935,7 +3955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -3954,7 +3974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -3973,7 +3993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -3994,7 +4014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -4013,7 +4033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="18" t="s">
         <v>84</v>
@@ -4028,23 +4048,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>32</v>
@@ -4052,7 +4072,7 @@
       <c r="C17" s="39"/>
       <c r="D17" s="40"/>
       <c r="E17" s="18" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>68</v>
@@ -4061,7 +4081,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>33</v>
@@ -4069,7 +4089,7 @@
       <c r="C18" s="39"/>
       <c r="D18" s="40"/>
       <c r="E18" s="18" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>43</v>
@@ -4078,7 +4098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>61</v>
@@ -4095,16 +4115,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="18" t="s">
-        <v>47</v>
-      </c>
+      <c r="E20" s="18"/>
       <c r="F20" s="16" t="s">
         <v>4</v>
       </c>
@@ -4112,24 +4130,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="18" t="s">
-        <v>56</v>
-      </c>
+      <c r="E21" s="18"/>
       <c r="F21" s="16" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>35</v>
@@ -4137,7 +4153,7 @@
       <c r="C22" s="39"/>
       <c r="D22" s="40"/>
       <c r="E22" s="18" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>102</v>
@@ -4146,7 +4162,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>71</v>
@@ -4154,7 +4170,7 @@
       <c r="C23" s="39"/>
       <c r="D23" s="40"/>
       <c r="E23" s="18" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>68</v>
@@ -4163,24 +4179,22 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="18" t="s">
-        <v>49</v>
-      </c>
+      <c r="E24" s="18"/>
       <c r="F24" s="16" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>40</v>
@@ -4191,13 +4205,13 @@
         <v>48</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>87</v>
@@ -4205,39 +4219,39 @@
       <c r="C26" s="39"/>
       <c r="D26" s="40"/>
       <c r="E26" s="18" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
       <c r="B27" s="38" t="s">
         <v>114</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="40"/>
       <c r="E27" s="18" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>102</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
       <c r="B28" s="38" t="s">
         <v>119</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="40"/>
       <c r="E28" s="18" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>120</v>
@@ -4246,8 +4260,48 @@
         <v>121</v>
       </c>
     </row>
+    <row r="29" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="B30" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A15:XFD15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
@@ -4257,12 +4311,6 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A15:XFD15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">

--- a/documents/Deliverable_4/FlyingMongeese_Deliverable_4_SprintBacklog.xlsx
+++ b/documents/Deliverable_4/FlyingMongeese_Deliverable_4_SprintBacklog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\Deliverable_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aaron/Documents/GitHub/Software2project/documents/Deliverable_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36E9C9A-78FE-4656-A89D-91E5A182E6F5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10050" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24080" windowHeight="15560" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SprintBacklog1" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="SprintBacklog5" sheetId="6" r:id="rId5"/>
     <sheet name="SprintBacklog6" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="138">
   <si>
     <t>Story Type</t>
   </si>
@@ -700,14 +699,6 @@
 Carolyn:</t>
   </si>
   <si>
-    <t>Cade:X
-Andre:X
-Turner:
-Mayur:
-Riggs:X
-Carolyn:</t>
-  </si>
-  <si>
     <t>Whats Left</t>
   </si>
   <si>
@@ -743,11 +734,27 @@
   <si>
     <t>Finalize Document</t>
   </si>
+  <si>
+    <t>Cade:X
+Andre:X
+Turner:X
+Mayur:
+Riggs:X
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Cade:X
+Andre:X
+Turner:X
+Mayur:X
+Riggs:X
+Carolyn:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -965,14 +972,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1346,31 +1353,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1396,7 +1403,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>10</v>
       </c>
@@ -1419,7 +1426,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>11</v>
       </c>
@@ -1442,7 +1449,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>12</v>
       </c>
@@ -1465,7 +1472,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>13</v>
       </c>
@@ -1488,7 +1495,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>14</v>
       </c>
@@ -1511,7 +1518,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>15</v>
       </c>
@@ -1536,7 +1543,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>16</v>
       </c>
@@ -1561,7 +1568,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>17</v>
       </c>
@@ -1586,7 +1593,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>18</v>
       </c>
@@ -1609,7 +1616,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>19</v>
       </c>
@@ -1632,7 +1639,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>20</v>
       </c>
@@ -1657,12 +1664,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="9" t="s">
         <v>31</v>
@@ -1673,7 +1680,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="9" t="s">
         <v>32</v>
@@ -1690,7 +1697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="78" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="9" t="s">
         <v>33</v>
@@ -1707,7 +1714,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="78" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="9" t="s">
         <v>34</v>
@@ -1724,7 +1731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="78" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="9" t="s">
         <v>38</v>
@@ -1741,7 +1748,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="78" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="9" t="s">
         <v>39</v>
@@ -1758,7 +1765,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="78" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="9" t="s">
         <v>40</v>
@@ -1775,7 +1782,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="78" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
@@ -1789,10 +1796,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B24" s="3"/>
     </row>
   </sheetData>
@@ -1810,26 +1817,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="7" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:11" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>12</v>
       </c>
@@ -1855,7 +1862,7 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="23">
         <v>10</v>
       </c>
@@ -1880,7 +1887,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>11</v>
       </c>
@@ -1905,7 +1912,7 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A5" s="23">
         <v>12</v>
       </c>
@@ -1928,7 +1935,7 @@
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <v>13</v>
       </c>
@@ -1951,7 +1958,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>14</v>
       </c>
@@ -1974,7 +1981,7 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="23">
         <v>15</v>
       </c>
@@ -1999,7 +2006,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <v>16</v>
       </c>
@@ -2024,7 +2031,7 @@
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>17</v>
       </c>
@@ -2049,7 +2056,7 @@
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>18</v>
       </c>
@@ -2072,7 +2079,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>20</v>
       </c>
@@ -2097,12 +2104,12 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+    <row r="13" spans="1:11" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A13" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="38" t="s">
         <v>31</v>
@@ -2117,13 +2124,13 @@
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26" t="s">
         <v>75</v>
@@ -2132,13 +2139,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="23"/>
       <c r="F16" s="26" t="s">
         <v>4</v>
@@ -2147,13 +2154,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
@@ -2164,13 +2171,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="23"/>
       <c r="F18" s="26" t="s">
         <v>4</v>
@@ -2179,13 +2186,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
@@ -2196,13 +2203,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="23"/>
       <c r="F20" s="26" t="s">
         <v>4</v>
@@ -2211,13 +2218,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="23"/>
       <c r="F21" s="26" t="s">
         <v>4</v>
@@ -2226,13 +2233,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="23"/>
       <c r="F22" s="26" t="s">
         <v>4</v>
@@ -2241,13 +2248,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="23" t="s">
         <v>48</v>
       </c>
@@ -2260,18 +2267,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A13:XFD13"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="4" priority="1">
@@ -2284,29 +2291,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2329,7 +2336,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -2348,7 +2355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -2367,7 +2374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -2386,7 +2393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2405,7 +2412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2424,7 +2431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2443,7 +2450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2462,7 +2469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2481,7 +2488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2500,7 +2507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2519,7 +2526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -2538,23 +2545,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:7" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A14" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="38" t="s">
         <v>32</v>
@@ -2571,7 +2578,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>33</v>
@@ -2588,7 +2595,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>61</v>
@@ -2605,7 +2612,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>38</v>
@@ -2622,7 +2629,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>39</v>
@@ -2639,7 +2646,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>35</v>
@@ -2656,7 +2663,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>37</v>
@@ -2673,7 +2680,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>36</v>
@@ -2690,7 +2697,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>40</v>
@@ -2707,16 +2714,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
@@ -2724,11 +2736,6 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="3" priority="1">
@@ -2741,29 +2748,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="3" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2786,7 +2793,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -2807,7 +2814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -2828,7 +2835,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -2849,7 +2856,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2868,7 +2875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2887,7 +2894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2908,7 +2915,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2929,7 +2936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2950,7 +2957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2971,7 +2978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2990,7 +2997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -3009,7 +3016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>21</v>
       </c>
@@ -3028,26 +3035,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:7" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A16" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>32</v>
@@ -3064,7 +3071,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>33</v>
@@ -3081,7 +3088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>61</v>
@@ -3098,7 +3105,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>38</v>
@@ -3115,7 +3122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>39</v>
@@ -3132,7 +3139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>35</v>
@@ -3149,7 +3156,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>37</v>
@@ -3166,7 +3173,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>36</v>
@@ -3183,7 +3190,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>40</v>
@@ -3200,7 +3207,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="B27" s="38" t="s">
         <v>114</v>
       </c>
@@ -3216,7 +3223,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28"/>
     </row>
   </sheetData>
@@ -3246,29 +3253,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -3291,7 +3298,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -3312,7 +3319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -3333,7 +3340,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -3354,7 +3361,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -3373,7 +3380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -3392,7 +3399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -3413,7 +3420,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -3434,7 +3441,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -3455,7 +3462,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -3476,7 +3483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -3495,7 +3502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -3514,7 +3521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
       <c r="B14" s="30" t="s">
         <v>84</v>
@@ -3529,23 +3536,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:7" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A15" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>32</v>
@@ -3562,7 +3569,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>33</v>
@@ -3579,7 +3586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>61</v>
@@ -3596,7 +3603,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>38</v>
@@ -3613,7 +3620,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>39</v>
@@ -3630,7 +3637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>35</v>
@@ -3647,7 +3654,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>71</v>
@@ -3664,7 +3671,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>36</v>
@@ -3681,7 +3688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>40</v>
@@ -3698,7 +3705,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>87</v>
@@ -3715,7 +3722,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="B27" s="38" t="s">
         <v>114</v>
       </c>
@@ -3731,7 +3738,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="B28" s="38" t="s">
         <v>119</v>
       </c>
@@ -3775,29 +3782,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7A854D-36D4-4862-A322-F95941A93F31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -3820,7 +3827,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -3839,7 +3846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -3858,7 +3865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -3877,7 +3884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -3896,7 +3903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -3917,7 +3924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -3936,7 +3943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -3955,7 +3962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -3974,7 +3981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -3993,7 +4000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -4014,7 +4021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -4033,7 +4040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="18" t="s">
         <v>84</v>
@@ -4048,23 +4055,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:7" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A15" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>32</v>
@@ -4072,16 +4079,16 @@
       <c r="C17" s="39"/>
       <c r="D17" s="40"/>
       <c r="E17" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>33</v>
@@ -4089,7 +4096,7 @@
       <c r="C18" s="39"/>
       <c r="D18" s="40"/>
       <c r="E18" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>43</v>
@@ -4098,7 +4105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>61</v>
@@ -4115,7 +4122,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>38</v>
@@ -4130,7 +4137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>39</v>
@@ -4145,7 +4152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>35</v>
@@ -4153,7 +4160,7 @@
       <c r="C22" s="39"/>
       <c r="D22" s="40"/>
       <c r="E22" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>102</v>
@@ -4162,7 +4169,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>71</v>
@@ -4170,7 +4177,7 @@
       <c r="C23" s="39"/>
       <c r="D23" s="40"/>
       <c r="E23" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>68</v>
@@ -4179,7 +4186,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>36</v>
@@ -4194,7 +4201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>40</v>
@@ -4205,13 +4212,13 @@
         <v>48</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>87</v>
@@ -4219,23 +4226,23 @@
       <c r="C26" s="39"/>
       <c r="D26" s="40"/>
       <c r="E26" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>129</v>
-      </c>
       <c r="G26" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="B27" s="38" t="s">
         <v>114</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="40"/>
       <c r="E27" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>102</v>
@@ -4244,14 +4251,14 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="B28" s="38" t="s">
         <v>119</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="40"/>
       <c r="E28" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>120</v>
@@ -4260,40 +4267,41 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="B29" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="40"/>
       <c r="E29" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>43</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="B30" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="39"/>
       <c r="D30" s="40"/>
       <c r="E30" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>43</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B19:D19"/>
@@ -4310,7 +4318,6 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">

--- a/documents/Deliverable_4/FlyingMongeese_Deliverable_4_SprintBacklog.xlsx
+++ b/documents/Deliverable_4/FlyingMongeese_Deliverable_4_SprintBacklog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27417"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aaron/Documents/GitHub/Software2project/documents/Deliverable_4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\Software2project\documents\Deliverable_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6025E13B-DC43-425A-8BB0-1657CD888F66}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24080" windowHeight="15560" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="936" yWindow="444" windowWidth="24084" windowHeight="15564" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SprintBacklog1" sheetId="2" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="137">
   <si>
     <t>Story Type</t>
   </si>
@@ -721,14 +722,6 @@
 Carolyn: </t>
   </si>
   <si>
-    <t>Cade:X
-Andre:
-Turner:X
-Mayur:X
-Riggs:X
-Carolyn:X</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create and Finalize Document </t>
   </si>
   <si>
@@ -754,7 +747,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -972,14 +965,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1353,31 +1346,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1403,7 +1396,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>10</v>
       </c>
@@ -1426,7 +1419,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>11</v>
       </c>
@@ -1449,7 +1442,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>12</v>
       </c>
@@ -1472,7 +1465,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>13</v>
       </c>
@@ -1495,7 +1488,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>14</v>
       </c>
@@ -1518,7 +1511,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>15</v>
       </c>
@@ -1543,7 +1536,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>16</v>
       </c>
@@ -1568,7 +1561,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>17</v>
       </c>
@@ -1593,7 +1586,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>18</v>
       </c>
@@ -1616,7 +1609,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>19</v>
       </c>
@@ -1639,7 +1632,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>20</v>
       </c>
@@ -1664,12 +1657,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="9" t="s">
         <v>31</v>
@@ -1680,7 +1673,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="9" t="s">
         <v>32</v>
@@ -1697,7 +1690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="78" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="9" t="s">
         <v>33</v>
@@ -1714,7 +1707,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="78" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="9" t="s">
         <v>34</v>
@@ -1731,7 +1724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="78" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="9" t="s">
         <v>38</v>
@@ -1748,7 +1741,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="78" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="9" t="s">
         <v>39</v>
@@ -1765,7 +1758,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="78" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="9" t="s">
         <v>40</v>
@@ -1782,7 +1775,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="78" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
@@ -1796,10 +1789,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
     </row>
   </sheetData>
@@ -1817,26 +1810,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
     <col min="6" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:11" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>12</v>
       </c>
@@ -1862,7 +1855,7 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>10</v>
       </c>
@@ -1887,7 +1880,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>11</v>
       </c>
@@ -1912,7 +1905,7 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>12</v>
       </c>
@@ -1935,7 +1928,7 @@
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>13</v>
       </c>
@@ -1958,7 +1951,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>14</v>
       </c>
@@ -1981,7 +1974,7 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>15</v>
       </c>
@@ -2006,7 +1999,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>16</v>
       </c>
@@ -2031,7 +2024,7 @@
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>17</v>
       </c>
@@ -2056,7 +2049,7 @@
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>18</v>
       </c>
@@ -2079,7 +2072,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>20</v>
       </c>
@@ -2104,12 +2097,12 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:11" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="38" t="s">
         <v>31</v>
@@ -2124,13 +2117,13 @@
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26" t="s">
         <v>75</v>
@@ -2139,13 +2132,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="23"/>
       <c r="F16" s="26" t="s">
         <v>4</v>
@@ -2154,13 +2147,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
@@ -2171,13 +2164,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="23"/>
       <c r="F18" s="26" t="s">
         <v>4</v>
@@ -2186,13 +2179,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
@@ -2203,13 +2196,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="23"/>
       <c r="F20" s="26" t="s">
         <v>4</v>
@@ -2218,13 +2211,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="23"/>
       <c r="F21" s="26" t="s">
         <v>4</v>
@@ -2233,13 +2226,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="23"/>
       <c r="F22" s="26" t="s">
         <v>4</v>
@@ -2248,13 +2241,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="23" t="s">
         <v>48</v>
       </c>
@@ -2267,18 +2260,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B14:G14"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B14:G14"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="4" priority="1">
@@ -2291,29 +2284,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2336,7 +2329,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -2355,7 +2348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -2374,7 +2367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -2393,7 +2386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2412,7 +2405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2431,7 +2424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2450,7 +2443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2469,7 +2462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2488,7 +2481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2507,7 +2500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2526,7 +2519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -2545,23 +2538,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="38" t="s">
         <v>32</v>
@@ -2578,7 +2571,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>33</v>
@@ -2595,7 +2588,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>61</v>
@@ -2612,7 +2605,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>38</v>
@@ -2629,7 +2622,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>39</v>
@@ -2646,7 +2639,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>35</v>
@@ -2663,7 +2656,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>37</v>
@@ -2680,7 +2673,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>36</v>
@@ -2697,7 +2690,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>40</v>
@@ -2714,21 +2707,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
@@ -2736,6 +2724,11 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="3" priority="1">
@@ -2748,29 +2741,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="3" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2793,7 +2786,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -2814,7 +2807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -2835,7 +2828,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -2856,7 +2849,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2875,7 +2868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2894,7 +2887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2915,7 +2908,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2936,7 +2929,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2957,7 +2950,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2978,7 +2971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2997,7 +2990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -3016,7 +3009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>21</v>
       </c>
@@ -3035,26 +3028,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:7" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>32</v>
@@ -3071,7 +3064,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>33</v>
@@ -3088,7 +3081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>61</v>
@@ -3105,7 +3098,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>38</v>
@@ -3122,7 +3115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>39</v>
@@ -3139,7 +3132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>35</v>
@@ -3156,7 +3149,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>37</v>
@@ -3173,7 +3166,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>36</v>
@@ -3190,7 +3183,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>40</v>
@@ -3207,7 +3200,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="96" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
         <v>114</v>
       </c>
@@ -3223,7 +3216,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E28"/>
     </row>
   </sheetData>
@@ -3253,29 +3246,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -3298,7 +3291,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -3319,7 +3312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -3340,7 +3333,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -3361,7 +3354,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -3380,7 +3373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -3399,7 +3392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -3420,7 +3413,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -3441,7 +3434,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -3462,7 +3455,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -3483,7 +3476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -3502,7 +3495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -3521,7 +3514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
       <c r="B14" s="30" t="s">
         <v>84</v>
@@ -3536,23 +3529,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>32</v>
@@ -3569,7 +3562,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>33</v>
@@ -3586,7 +3579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>61</v>
@@ -3603,7 +3596,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>38</v>
@@ -3620,7 +3613,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>39</v>
@@ -3637,7 +3630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>35</v>
@@ -3654,7 +3647,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>71</v>
@@ -3671,7 +3664,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>36</v>
@@ -3688,7 +3681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>40</v>
@@ -3705,7 +3698,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="96" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>87</v>
@@ -3722,7 +3715,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="96" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
         <v>114</v>
       </c>
@@ -3738,7 +3731,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="96" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B28" s="38" t="s">
         <v>119</v>
       </c>
@@ -3782,29 +3775,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="29.5" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -3827,7 +3820,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -3846,7 +3839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -3865,7 +3858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -3884,7 +3877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -3903,7 +3896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -3924,7 +3917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -3943,7 +3936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -3962,7 +3955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -3981,7 +3974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -4000,7 +3993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -4021,7 +4014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -4040,7 +4033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="18" t="s">
         <v>84</v>
@@ -4055,23 +4048,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>32</v>
@@ -4079,7 +4072,7 @@
       <c r="C17" s="39"/>
       <c r="D17" s="40"/>
       <c r="E17" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>91</v>
@@ -4088,7 +4081,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>33</v>
@@ -4096,7 +4089,7 @@
       <c r="C18" s="39"/>
       <c r="D18" s="40"/>
       <c r="E18" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>43</v>
@@ -4105,7 +4098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>61</v>
@@ -4122,7 +4115,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>38</v>
@@ -4137,7 +4130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>39</v>
@@ -4152,7 +4145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>35</v>
@@ -4160,7 +4153,7 @@
       <c r="C22" s="39"/>
       <c r="D22" s="40"/>
       <c r="E22" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>102</v>
@@ -4169,7 +4162,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>71</v>
@@ -4177,7 +4170,7 @@
       <c r="C23" s="39"/>
       <c r="D23" s="40"/>
       <c r="E23" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>68</v>
@@ -4186,7 +4179,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>36</v>
@@ -4201,7 +4194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>40</v>
@@ -4212,13 +4205,13 @@
         <v>48</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="96" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>87</v>
@@ -4226,23 +4219,23 @@
       <c r="C26" s="39"/>
       <c r="D26" s="40"/>
       <c r="E26" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="G26" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="96" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
         <v>114</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="40"/>
       <c r="E27" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>102</v>
@@ -4251,14 +4244,14 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="96" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B28" s="38" t="s">
         <v>119</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="40"/>
       <c r="E28" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>120</v>
@@ -4267,14 +4260,14 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="96" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B29" s="38" t="s">
         <v>129</v>
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="40"/>
       <c r="E29" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>43</v>
@@ -4283,14 +4276,14 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="96" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B30" s="38" t="s">
         <v>130</v>
       </c>
       <c r="C30" s="39"/>
       <c r="D30" s="40"/>
       <c r="E30" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>43</v>
@@ -4301,6 +4294,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
@@ -4317,7 +4311,6 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
